--- a/Random/Random.xlsx
+++ b/Random/Random.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">Test: bpu_3 (Random)</t>
   </si>
@@ -43,19 +43,43 @@
     <t xml:space="preserve">always_not_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">75%(for real random)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken (unconditional jump) =&gt; 50% of all prediction is mistaken. Tested branch is branch that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; 50+25 = 75%. But our pattern is 01111100010110100001100001001110 (15 – true and 17 false) =&gt; 15/32 * ½ + 50% = 23.4 + 50 = 73.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">always_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">25%(for real random)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken (unconditional jump) =&gt; 50% of all prediction is mistaken. Tested branch is branch that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; ½ * 1/2 = 25%. But our pattern is 01111100010110100001100001001110 (15 – true and 17 false) =&gt; 15/32 * ½ = 26.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">backward_jumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is unconditional backward jump =&gt; 1/2 of all predictions is predicted. Tested branch is branch(forward jump and this predictor doesn’t work) that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; ½ * 1/2 = 25%. But our pattern is 01111100010110100001100001001110 (15 – true and 17 false) =&gt; 15/32 * ½ = 26.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_one_bit</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/2 predictions is true. Tested branch is branch that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; ½ * 1/2 = 25%. But we have 01111100010110100001100001001110 with 18 right predictions and 14 misses =&gt; 14/32 = 21.9%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_two_bits</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/2 predictions is true. Tested branch is branch that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; ½ * 1/2 = 25%. But we have 01111100010110100001100001001110 with 14 right predictions and 18 misses =&gt; 18/32 * ½  = 28.1%(one bit is better because it is simpler to make it “hot”, SN → WEAKLY T is 2 stages, but N → T is only one stage) (in other situation with other random pattern two-bits is better, but it’s problems of our method of producing random numbers)</t>
+  </si>
+  <si>
     <t xml:space="preserve">adaptive_two_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/2 predictions is true. Tested branch is branch that uses current bit to compare them with zero. =&gt; if it was real random we would have 50%(of ½ of all predictions) mistakes(only on this branch) =&gt; ½ * 1/2 = 25%. But we have 01111100010110100001100001001110 with 14 right predictions and 18 misses =&gt; 18/32 * ½  = 28.1%(it is worse than some simpler predictor because two-levels use 2bit pattern that can remember bad  predictions. But this effect can be seen only on special random patterns (in other situation with other random pattern two-levels is better, but it’s problems of our method of producing random numbers)</t>
   </si>
 </sst>
 </file>
@@ -136,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +178,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,8 +204,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,7 +213,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -224,50 +252,86 @@
       <c r="C3" s="4" t="n">
         <v>0.734367</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.265627</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.234371</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.218752</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.281253</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.281259</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
